--- a/Data_frame/balancos_definitivos/BEMA3.xlsx
+++ b/Data_frame/balancos_definitivos/BEMA3.xlsx
@@ -6791,7 +6791,7 @@
         <v>75339</v>
       </c>
       <c r="E57" t="n">
-        <v>82218</v>
+        <v>82217.992</v>
       </c>
       <c r="F57" t="n">
         <v>76381</v>
@@ -6803,7 +6803,7 @@
         <v>101130</v>
       </c>
       <c r="I57" t="n">
-        <v>108580.992</v>
+        <v>108581</v>
       </c>
       <c r="J57" t="n">
         <v>81562</v>
@@ -6815,7 +6815,7 @@
         <v>101729</v>
       </c>
       <c r="M57" t="n">
-        <v>110747.008</v>
+        <v>110746.992</v>
       </c>
       <c r="N57" t="n">
         <v>97698</v>
@@ -6826,66 +6826,26 @@
       <c r="P57" t="n">
         <v>100014</v>
       </c>
-      <c r="Q57" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" t="n">
-        <v>0</v>
-      </c>
-      <c r="S57" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" t="n">
-        <v>0</v>
-      </c>
-      <c r="U57" t="n">
-        <v>0</v>
-      </c>
-      <c r="V57" t="n">
-        <v>0</v>
-      </c>
-      <c r="W57" t="n">
-        <v>0</v>
-      </c>
-      <c r="X57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
+      <c r="AI57" t="inlineStr"/>
+      <c r="AJ57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6938,66 +6898,26 @@
       <c r="P58" t="n">
         <v>-19924</v>
       </c>
-      <c r="Q58" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" t="n">
-        <v>0</v>
-      </c>
-      <c r="S58" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" t="n">
-        <v>0</v>
-      </c>
-      <c r="U58" t="n">
-        <v>0</v>
-      </c>
-      <c r="V58" t="n">
-        <v>0</v>
-      </c>
-      <c r="W58" t="n">
-        <v>0</v>
-      </c>
-      <c r="X58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="inlineStr"/>
+      <c r="AI58" t="inlineStr"/>
+      <c r="AJ58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7027,7 +6947,7 @@
         <v>85231</v>
       </c>
       <c r="I59" t="n">
-        <v>90250</v>
+        <v>90250.008</v>
       </c>
       <c r="J59" t="n">
         <v>70834</v>
@@ -7051,7 +6971,7 @@
         <v>80090</v>
       </c>
       <c r="Q59" t="n">
-        <v>81705.008</v>
+        <v>81705</v>
       </c>
       <c r="R59" t="n">
         <v>70747</v>
@@ -7063,7 +6983,7 @@
         <v>71725</v>
       </c>
       <c r="U59" t="n">
-        <v>83035.008</v>
+        <v>83035</v>
       </c>
       <c r="V59" t="n">
         <v>70993</v>
@@ -7075,7 +6995,7 @@
         <v>86348</v>
       </c>
       <c r="Y59" t="n">
-        <v>87228.03200000001</v>
+        <v>87228.016</v>
       </c>
       <c r="Z59" t="n">
         <v>77804</v>
@@ -7099,7 +7019,7 @@
         <v>110780</v>
       </c>
       <c r="AG59" t="n">
-        <v>114814.016</v>
+        <v>114814</v>
       </c>
       <c r="AH59" t="n">
         <v>98063</v>
@@ -7163,7 +7083,7 @@
         <v>-46987</v>
       </c>
       <c r="Q60" t="n">
-        <v>-49107.008</v>
+        <v>-49107</v>
       </c>
       <c r="R60" t="n">
         <v>-45486</v>
@@ -7187,7 +7107,7 @@
         <v>-52542</v>
       </c>
       <c r="Y60" t="n">
-        <v>-54100</v>
+        <v>-54099.992</v>
       </c>
       <c r="Z60" t="n">
         <v>-47250</v>
@@ -7211,7 +7131,7 @@
         <v>-63483</v>
       </c>
       <c r="AG60" t="n">
-        <v>-66225.984</v>
+        <v>-66225.992</v>
       </c>
       <c r="AH60" t="n">
         <v>-60524</v>
@@ -7565,54 +7485,22 @@
           <t xml:space="preserve">Perdas pela Não Recuperabilidade de Ativos </t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
       <c r="R64" t="n">
         <v>0</v>
       </c>
@@ -8394,66 +8282,26 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
-      <c r="Q71" t="n">
-        <v>0</v>
-      </c>
-      <c r="R71" t="n">
-        <v>0</v>
-      </c>
-      <c r="S71" t="n">
-        <v>0</v>
-      </c>
-      <c r="T71" t="n">
-        <v>0</v>
-      </c>
-      <c r="U71" t="n">
-        <v>0</v>
-      </c>
-      <c r="V71" t="n">
-        <v>0</v>
-      </c>
-      <c r="W71" t="n">
-        <v>0</v>
-      </c>
-      <c r="X71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr"/>
+      <c r="AG71" t="inlineStr"/>
+      <c r="AH71" t="inlineStr"/>
+      <c r="AI71" t="inlineStr"/>
+      <c r="AJ71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8506,66 +8354,26 @@
       <c r="P72" t="n">
         <v>0</v>
       </c>
-      <c r="Q72" t="n">
-        <v>0</v>
-      </c>
-      <c r="R72" t="n">
-        <v>0</v>
-      </c>
-      <c r="S72" t="n">
-        <v>0</v>
-      </c>
-      <c r="T72" t="n">
-        <v>0</v>
-      </c>
-      <c r="U72" t="n">
-        <v>0</v>
-      </c>
-      <c r="V72" t="n">
-        <v>0</v>
-      </c>
-      <c r="W72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
+      <c r="AG72" t="inlineStr"/>
+      <c r="AH72" t="inlineStr"/>
+      <c r="AI72" t="inlineStr"/>
+      <c r="AJ72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8618,66 +8426,26 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
-      <c r="Q73" t="n">
-        <v>0</v>
-      </c>
-      <c r="R73" t="n">
-        <v>0</v>
-      </c>
-      <c r="S73" t="n">
-        <v>0</v>
-      </c>
-      <c r="T73" t="n">
-        <v>0</v>
-      </c>
-      <c r="U73" t="n">
-        <v>0</v>
-      </c>
-      <c r="V73" t="n">
-        <v>0</v>
-      </c>
-      <c r="W73" t="n">
-        <v>0</v>
-      </c>
-      <c r="X73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
+      <c r="AG73" t="inlineStr"/>
+      <c r="AH73" t="inlineStr"/>
+      <c r="AI73" t="inlineStr"/>
+      <c r="AJ73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9066,66 +8834,26 @@
       <c r="P77" t="n">
         <v>0</v>
       </c>
-      <c r="Q77" t="n">
-        <v>0</v>
-      </c>
-      <c r="R77" t="n">
-        <v>0</v>
-      </c>
-      <c r="S77" t="n">
-        <v>0</v>
-      </c>
-      <c r="T77" t="n">
-        <v>0</v>
-      </c>
-      <c r="U77" t="n">
-        <v>0</v>
-      </c>
-      <c r="V77" t="n">
-        <v>0</v>
-      </c>
-      <c r="W77" t="n">
-        <v>0</v>
-      </c>
-      <c r="X77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="inlineStr"/>
+      <c r="AG77" t="inlineStr"/>
+      <c r="AH77" t="inlineStr"/>
+      <c r="AI77" t="inlineStr"/>
+      <c r="AJ77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9178,66 +8906,26 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
-      <c r="Q78" t="n">
-        <v>0</v>
-      </c>
-      <c r="R78" t="n">
-        <v>0</v>
-      </c>
-      <c r="S78" t="n">
-        <v>0</v>
-      </c>
-      <c r="T78" t="n">
-        <v>0</v>
-      </c>
-      <c r="U78" t="n">
-        <v>0</v>
-      </c>
-      <c r="V78" t="n">
-        <v>0</v>
-      </c>
-      <c r="W78" t="n">
-        <v>0</v>
-      </c>
-      <c r="X78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr"/>
+      <c r="AG78" t="inlineStr"/>
+      <c r="AH78" t="inlineStr"/>
+      <c r="AI78" t="inlineStr"/>
+      <c r="AJ78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
